--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.993435898491369</v>
       </c>
       <c r="G13">
-        <v>0.9932646349701469</v>
+        <v>0.9932646349701468</v>
       </c>
       <c r="H13">
         <v>0.9952449745221986</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9948014084084232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.029151185967918</v>
+      </c>
+      <c r="D16">
+        <v>0.8894746492138162</v>
+      </c>
+      <c r="E16">
+        <v>1.015970039646528</v>
+      </c>
+      <c r="F16">
+        <v>1.029151185967918</v>
+      </c>
+      <c r="G16">
+        <v>0.9386335319368188</v>
+      </c>
+      <c r="H16">
+        <v>1.050516769224966</v>
+      </c>
+      <c r="I16">
+        <v>1.020595932049202</v>
+      </c>
+      <c r="J16">
+        <v>0.8894746492138162</v>
+      </c>
+      <c r="K16">
+        <v>0.9527223444301722</v>
+      </c>
+      <c r="L16">
+        <v>0.9909367651990451</v>
+      </c>
+      <c r="M16">
+        <v>0.9907236846732083</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.029151185967918</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
@@ -964,7 +964,7 @@
         <v>0.993435898491369</v>
       </c>
       <c r="G13">
-        <v>0.9932646349701468</v>
+        <v>0.9932646349701469</v>
       </c>
       <c r="H13">
         <v>0.9952449745221986</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.012944</v>
+        <v>1.029151185967918</v>
       </c>
       <c r="D10">
-        <v>0.8111200000000001</v>
+        <v>0.8894746492138162</v>
       </c>
       <c r="E10">
-        <v>1.052952</v>
+        <v>1.015970039646528</v>
       </c>
       <c r="F10">
-        <v>1.012944</v>
+        <v>1.029151185967918</v>
       </c>
       <c r="G10">
-        <v>0.8784680000000011</v>
+        <v>0.9386335319368188</v>
       </c>
       <c r="H10">
-        <v>1.167387999999997</v>
+        <v>1.050516769224966</v>
       </c>
       <c r="I10">
-        <v>1.043996000000001</v>
+        <v>1.020595932049202</v>
       </c>
       <c r="J10">
-        <v>0.8111200000000001</v>
+        <v>0.8894746492138162</v>
       </c>
       <c r="K10">
-        <v>0.9320360000000002</v>
+        <v>0.9527223444301722</v>
       </c>
       <c r="L10">
-        <v>0.9724900000000003</v>
+        <v>0.9909367651990451</v>
       </c>
       <c r="M10">
-        <v>0.9944779999999999</v>
+        <v>0.9907236846732083</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>0.9865264967460508</v>
       </c>
       <c r="D11">
-        <v>0.61</v>
+        <v>0.947273918617817</v>
       </c>
       <c r="E11">
-        <v>1.11</v>
+        <v>1.014922471336538</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>0.9865264967460508</v>
       </c>
       <c r="G11">
-        <v>0.76</v>
+        <v>0.9583465575639657</v>
       </c>
       <c r="H11">
-        <v>1.33</v>
+        <v>1.05653774535591</v>
       </c>
       <c r="I11">
-        <v>1.1</v>
+        <v>1.006027579896071</v>
       </c>
       <c r="J11">
-        <v>0.61</v>
+        <v>0.947273918617817</v>
       </c>
       <c r="K11">
-        <v>0.8600000000000001</v>
+        <v>0.9810981949771774</v>
       </c>
       <c r="L11">
-        <v>0.9550000000000001</v>
+        <v>0.9838123458616141</v>
       </c>
       <c r="M11">
-        <v>0.9933333333333335</v>
+        <v>0.9949391282527253</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027709146521598</v>
+        <v>0.9863314240320836</v>
       </c>
       <c r="D12">
-        <v>0.769980440166402</v>
+        <v>0.9482942795311028</v>
       </c>
       <c r="E12">
-        <v>1.061427330867196</v>
+        <v>1.014631289389101</v>
       </c>
       <c r="F12">
-        <v>1.027709146521598</v>
+        <v>0.9863314240320836</v>
       </c>
       <c r="G12">
-        <v>0.858271062220804</v>
+        <v>0.958948227160391</v>
       </c>
       <c r="H12">
-        <v>1.188010268057598</v>
+        <v>1.055721081218991</v>
       </c>
       <c r="I12">
-        <v>1.054819286835198</v>
+        <v>1.005737730051075</v>
       </c>
       <c r="J12">
-        <v>0.769980440166402</v>
+        <v>0.9482942795311028</v>
       </c>
       <c r="K12">
-        <v>0.9157038855167989</v>
+        <v>0.9814627844601018</v>
       </c>
       <c r="L12">
-        <v>0.9717065160191984</v>
+        <v>0.9838971042460927</v>
       </c>
       <c r="M12">
-        <v>0.9933695891114661</v>
+        <v>0.9949440052304572</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.993435898491369</v>
+        <v>0.9864858207631485</v>
       </c>
       <c r="D13">
-        <v>0.9947004371482534</v>
+        <v>0.947476916137293</v>
       </c>
       <c r="E13">
-        <v>0.9943060068628734</v>
+        <v>1.014876820031628</v>
       </c>
       <c r="F13">
-        <v>0.993435898491369</v>
+        <v>0.9864858207631485</v>
       </c>
       <c r="G13">
-        <v>0.9932646349701469</v>
+        <v>0.9584658806729444</v>
       </c>
       <c r="H13">
-        <v>0.9952449745221986</v>
+        <v>1.056384977097646</v>
       </c>
       <c r="I13">
-        <v>0.9942550969859905</v>
+        <v>1.005954059929437</v>
       </c>
       <c r="J13">
-        <v>0.9947004371482534</v>
+        <v>0.947476916137293</v>
       </c>
       <c r="K13">
-        <v>0.9945032220055634</v>
+        <v>0.9811768680844608</v>
       </c>
       <c r="L13">
-        <v>0.9939695602484663</v>
+        <v>0.9838313444238046</v>
       </c>
       <c r="M13">
-        <v>0.9942011748301387</v>
+        <v>0.9949407457720162</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9922415012822449</v>
+        <v>1.012944</v>
       </c>
       <c r="D14">
-        <v>1.007309691688417</v>
+        <v>0.8111200000000001</v>
       </c>
       <c r="E14">
-        <v>0.990682121422112</v>
+        <v>1.052952</v>
       </c>
       <c r="F14">
-        <v>0.9922415012822449</v>
+        <v>1.012944</v>
       </c>
       <c r="G14">
-        <v>0.9997303942744054</v>
+        <v>0.8784680000000011</v>
       </c>
       <c r="H14">
-        <v>0.9831589670918084</v>
+        <v>1.167387999999997</v>
       </c>
       <c r="I14">
-        <v>0.9900215253719409</v>
+        <v>1.043996000000001</v>
       </c>
       <c r="J14">
-        <v>1.007309691688417</v>
+        <v>0.8111200000000001</v>
       </c>
       <c r="K14">
-        <v>0.9989959065552645</v>
+        <v>0.9320360000000002</v>
       </c>
       <c r="L14">
-        <v>0.9956187039187547</v>
+        <v>0.9724900000000003</v>
       </c>
       <c r="M14">
-        <v>0.9938573668551549</v>
+        <v>0.9944779999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9851567748163171</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.038822212636244</v>
+        <v>0.61</v>
       </c>
       <c r="E15">
-        <v>0.9823845624334122</v>
+        <v>1.11</v>
       </c>
       <c r="F15">
-        <v>0.9851567748163171</v>
+        <v>1.05</v>
       </c>
       <c r="G15">
-        <v>1.01941278468194</v>
+        <v>0.76</v>
       </c>
       <c r="H15">
-        <v>0.9613684355296636</v>
+        <v>1.33</v>
       </c>
       <c r="I15">
-        <v>0.9816636803529625</v>
+        <v>1.1</v>
       </c>
       <c r="J15">
-        <v>1.038822212636244</v>
+        <v>0.61</v>
       </c>
       <c r="K15">
-        <v>1.010603387534828</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="L15">
-        <v>0.9978800811755727</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9948014084084232</v>
+        <v>0.9933333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.029151185967918</v>
+        <v>1.027709146521598</v>
       </c>
       <c r="D16">
-        <v>0.8894746492138162</v>
+        <v>0.769980440166402</v>
       </c>
       <c r="E16">
-        <v>1.015970039646528</v>
+        <v>1.061427330867196</v>
       </c>
       <c r="F16">
-        <v>1.029151185967918</v>
+        <v>1.027709146521598</v>
       </c>
       <c r="G16">
-        <v>0.9386335319368188</v>
+        <v>0.858271062220804</v>
       </c>
       <c r="H16">
-        <v>1.050516769224966</v>
+        <v>1.188010268057598</v>
       </c>
       <c r="I16">
-        <v>1.020595932049202</v>
+        <v>1.054819286835198</v>
       </c>
       <c r="J16">
-        <v>0.8894746492138162</v>
+        <v>0.769980440166402</v>
       </c>
       <c r="K16">
-        <v>0.9527223444301722</v>
+        <v>0.9157038855167989</v>
       </c>
       <c r="L16">
-        <v>0.9909367651990451</v>
+        <v>0.9717065160191984</v>
       </c>
       <c r="M16">
-        <v>0.9907236846732083</v>
+        <v>0.9933695891114661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.993435898491369</v>
+      </c>
+      <c r="D17">
+        <v>0.9947004371482534</v>
+      </c>
+      <c r="E17">
+        <v>0.9943060068628734</v>
+      </c>
+      <c r="F17">
+        <v>0.993435898491369</v>
+      </c>
+      <c r="G17">
+        <v>0.9932646349701468</v>
+      </c>
+      <c r="H17">
+        <v>0.9952449745221986</v>
+      </c>
+      <c r="I17">
+        <v>0.9942550969859905</v>
+      </c>
+      <c r="J17">
+        <v>0.9947004371482534</v>
+      </c>
+      <c r="K17">
+        <v>0.9945032220055634</v>
+      </c>
+      <c r="L17">
+        <v>0.9939695602484663</v>
+      </c>
+      <c r="M17">
+        <v>0.9942011748301387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9922415012822449</v>
+      </c>
+      <c r="D18">
+        <v>1.007309691688417</v>
+      </c>
+      <c r="E18">
+        <v>0.990682121422112</v>
+      </c>
+      <c r="F18">
+        <v>0.9922415012822449</v>
+      </c>
+      <c r="G18">
+        <v>0.9997303942744054</v>
+      </c>
+      <c r="H18">
+        <v>0.9831589670918084</v>
+      </c>
+      <c r="I18">
+        <v>0.9900215253719409</v>
+      </c>
+      <c r="J18">
+        <v>1.007309691688417</v>
+      </c>
+      <c r="K18">
+        <v>0.9989959065552645</v>
+      </c>
+      <c r="L18">
+        <v>0.9956187039187547</v>
+      </c>
+      <c r="M18">
+        <v>0.9938573668551549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9851567748163171</v>
+      </c>
+      <c r="D19">
+        <v>1.038822212636244</v>
+      </c>
+      <c r="E19">
+        <v>0.9823845624334122</v>
+      </c>
+      <c r="F19">
+        <v>0.9851567748163171</v>
+      </c>
+      <c r="G19">
+        <v>1.01941278468194</v>
+      </c>
+      <c r="H19">
+        <v>0.9613684355296636</v>
+      </c>
+      <c r="I19">
+        <v>0.9816636803529625</v>
+      </c>
+      <c r="J19">
+        <v>1.038822212636244</v>
+      </c>
+      <c r="K19">
+        <v>1.010603387534828</v>
+      </c>
+      <c r="L19">
+        <v>0.9978800811755727</v>
+      </c>
+      <c r="M19">
+        <v>0.9948014084084232</v>
       </c>
     </row>
   </sheetData>
